--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R52867a57e6d44c0b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R29130af03ee84317"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R29130af03ee84317"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf80092b3c0354906"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf80092b3c0354906"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Ra225c26aeae34ac5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Ra225c26aeae34ac5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf1d1bf8f4e0a4035"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rf1d1bf8f4e0a4035"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rdc3482784a9b4f8a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rdc3482784a9b4f8a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Ra28015115c5a4168"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Ra28015115c5a4168"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R971c23e83c7b4381"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R971c23e83c7b4381"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb4eb95926c6c42d1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb4eb95926c6c42d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1703f2a122354f1b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R1703f2a122354f1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R61445d4f56c54ddf"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R61445d4f56c54ddf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb7df3834764940a2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,32 +29,32 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="8">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="Rb7df3834764940a2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R28331b6c6ab54d14"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -29,32 +29,32 @@
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="8">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/007_BackgroundColors.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R28331b6c6ab54d14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BackgroundColors" sheetId="1" r:id="R4ddc55e8fefe4eda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
